--- a/NMVS/uploads/SO01_Sales order.xlsx
+++ b/NMVS/uploads/SO01_Sales order.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/276815161ec3e88f/Working Space/Netmarks/Aica/Aica Docs/AICA010_Sales order import/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="297" documentId="10_ncr:80_{98A10F0D-B2B3-47C9-A0E3-29206CDC9006}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B765B228-11BC-4F74-80FE-498C01F3ACBD}"/>
+  <xr:revisionPtr revIDLastSave="324" documentId="10_ncr:80_{98A10F0D-B2B3-47C9-A0E3-29206CDC9006}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5A5FBED0-7189-4968-A441-284315E29EB9}"/>
   <bookViews>
-    <workbookView xWindow="2250" yWindow="2250" windowWidth="21600" windowHeight="11295" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DS APAC" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="31">
   <si>
     <t>Item code</t>
   </si>
@@ -124,14 +124,20 @@
     <t>FG-01-4110-1-1203-1</t>
   </si>
   <si>
-    <t>SO10095</t>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>(0: for "Sale" type, 2: for "WH transfer")</t>
+  </si>
+  <si>
+    <t>SO444</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -160,6 +166,19 @@
       <b/>
       <sz val="16"/>
       <color indexed="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -233,7 +252,7 @@
       <alignment vertical="top"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
@@ -269,6 +288,15 @@
     </xf>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -689,7 +717,7 @@
     <outlinePr summaryBelow="0"/>
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A1:K20"/>
+  <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
@@ -709,27 +737,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
-      <c r="K1" s="14"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="17"/>
     </row>
     <row r="2" spans="1:11" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="13"/>
+      <c r="B2" s="16"/>
       <c r="C2" s="6" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="9"/>
@@ -740,10 +768,10 @@
       <c r="J2" s="9"/>
     </row>
     <row r="3" spans="1:11" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="13"/>
+      <c r="B3" s="16"/>
       <c r="C3" s="6" t="s">
         <v>19</v>
       </c>
@@ -756,10 +784,10 @@
       <c r="J3" s="9"/>
     </row>
     <row r="4" spans="1:11" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="13"/>
+      <c r="B4" s="16"/>
       <c r="C4" s="6" t="s">
         <v>20</v>
       </c>
@@ -772,10 +800,10 @@
       <c r="J4" s="9"/>
     </row>
     <row r="5" spans="1:11" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A5" s="12" t="s">
+      <c r="A5" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="13"/>
+      <c r="B5" s="16"/>
       <c r="C5" s="7">
         <v>44454</v>
       </c>
@@ -788,10 +816,10 @@
       <c r="J5" s="9"/>
     </row>
     <row r="6" spans="1:11" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A6" s="12" t="s">
+      <c r="A6" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="13"/>
+      <c r="B6" s="16"/>
       <c r="C6" s="7">
         <v>44459</v>
       </c>
@@ -804,10 +832,10 @@
       <c r="J6" s="9"/>
     </row>
     <row r="7" spans="1:11" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A7" s="12" t="s">
+      <c r="A7" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="13"/>
+      <c r="B7" s="16"/>
       <c r="C7" s="6" t="s">
         <v>16</v>
       </c>
@@ -820,10 +848,10 @@
       <c r="J7" s="9"/>
     </row>
     <row r="8" spans="1:11" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A8" s="12" t="s">
+      <c r="A8" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="13"/>
+      <c r="B8" s="16"/>
       <c r="C8" s="7" t="s">
         <v>21</v>
       </c>
@@ -836,122 +864,115 @@
       <c r="J8" s="9"/>
     </row>
     <row r="9" spans="1:11" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="9"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A10" s="10" t="s">
+      <c r="A9" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" s="16"/>
+      <c r="C9" s="6">
+        <v>0</v>
+      </c>
+      <c r="D9" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="12"/>
+    </row>
+    <row r="10" spans="1:11" ht="20.25" x14ac:dyDescent="0.2">
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="9"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A11" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B10" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="C10" s="10" t="s">
+      <c r="B11" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C11" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="D10" s="10" t="s">
+      <c r="D11" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="10" t="s">
+      <c r="E11" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="F10" s="10" t="s">
+      <c r="F11" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="G10" s="10" t="s">
+      <c r="G11" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="H10" s="10" t="s">
+      <c r="H11" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="I10" s="10" t="s">
+      <c r="I11" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="J10" s="10" t="s">
+      <c r="J11" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="K10" s="10" t="s">
+      <c r="K11" s="10" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A11" s="3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A12" s="3">
         <v>1</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B12" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="4">
-        <v>10</v>
-      </c>
-      <c r="G11" s="4"/>
-      <c r="H11" s="8">
-        <v>0</v>
-      </c>
-      <c r="I11" s="4">
-        <v>15.5</v>
-      </c>
-      <c r="J11" s="4">
-        <v>0</v>
-      </c>
-      <c r="K11" s="8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="3">
-        <v>2</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>23</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
       <c r="F12" s="4">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G12" s="4"/>
       <c r="H12" s="8">
         <v>0</v>
       </c>
       <c r="I12" s="4">
-        <v>20</v>
+        <v>15.5</v>
       </c>
       <c r="J12" s="4">
         <v>0</v>
       </c>
-      <c r="K12" s="8"/>
+      <c r="K12" s="8" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="13" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="4">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="G13" s="4"/>
       <c r="H13" s="8">
         <v>0</v>
       </c>
       <c r="I13" s="4">
-        <v>24.5</v>
+        <v>20</v>
       </c>
       <c r="J13" s="4">
         <v>0</v>
@@ -960,23 +981,23 @@
     </row>
     <row r="14" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
       <c r="F14" s="4">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="G14" s="4"/>
       <c r="H14" s="8">
         <v>0</v>
       </c>
       <c r="I14" s="4">
-        <v>29</v>
+        <v>24.5</v>
       </c>
       <c r="J14" s="4">
         <v>0</v>
@@ -985,23 +1006,23 @@
     </row>
     <row r="15" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
       <c r="F15" s="4">
-        <v>40</v>
+        <v>200</v>
       </c>
       <c r="G15" s="4"/>
       <c r="H15" s="8">
         <v>0</v>
       </c>
       <c r="I15" s="4">
-        <v>33.5</v>
+        <v>29</v>
       </c>
       <c r="J15" s="4">
         <v>0</v>
@@ -1010,23 +1031,23 @@
     </row>
     <row r="16" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
       <c r="F16" s="4">
-        <v>600</v>
+        <v>40</v>
       </c>
       <c r="G16" s="4"/>
       <c r="H16" s="8">
         <v>0</v>
       </c>
       <c r="I16" s="4">
-        <v>38</v>
+        <v>33.5</v>
       </c>
       <c r="J16" s="4">
         <v>0</v>
@@ -1035,22 +1056,32 @@
     </row>
     <row r="17" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
-        <v>7</v>
-      </c>
-      <c r="B17" s="1"/>
+        <v>6</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>27</v>
+      </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
-      <c r="F17" s="4"/>
+      <c r="F17" s="4">
+        <v>600</v>
+      </c>
       <c r="G17" s="4"/>
-      <c r="H17" s="8"/>
-      <c r="I17" s="11"/>
-      <c r="J17" s="11"/>
+      <c r="H17" s="8">
+        <v>0</v>
+      </c>
+      <c r="I17" s="4">
+        <v>38</v>
+      </c>
+      <c r="J17" s="4">
+        <v>0</v>
+      </c>
       <c r="K17" s="8"/>
     </row>
     <row r="18" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -1059,13 +1090,13 @@
       <c r="F18" s="4"/>
       <c r="G18" s="4"/>
       <c r="H18" s="8"/>
-      <c r="I18" s="4"/>
-      <c r="J18" s="4"/>
+      <c r="I18" s="11"/>
+      <c r="J18" s="11"/>
       <c r="K18" s="8"/>
     </row>
     <row r="19" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -1078,9 +1109,9 @@
       <c r="J19" s="4"/>
       <c r="K19" s="8"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -1093,9 +1124,24 @@
       <c r="J20" s="4"/>
       <c r="K20" s="8"/>
     </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A21" s="3">
+        <v>10</v>
+      </c>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="4"/>
+      <c r="K21" s="8"/>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B11:H20">
-    <sortCondition ref="B11:B20"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B12:H21">
+    <sortCondition ref="B12:B21"/>
   </sortState>
   <customSheetViews>
     <customSheetView guid="{5B8DBF14-5AD7-484A-89FF-8D7A95523023}" scale="130" showAutoFilter="1">
@@ -1104,10 +1150,11 @@
       <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
       <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" orientation="landscape" r:id="rId1"/>
       <headerFooter alignWithMargins="0"/>
-      <autoFilter ref="A2:F2" xr:uid="{12BA97D8-E602-4123-A02C-C73A015C5858}"/>
+      <autoFilter ref="A2:F2" xr:uid="{E300A4F1-1E1F-4471-95FF-C4151A525207}"/>
     </customSheetView>
   </customSheetViews>
-  <mergeCells count="8">
+  <mergeCells count="9">
+    <mergeCell ref="A9:B9"/>
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="A8:B8"/>
     <mergeCell ref="A2:B2"/>

--- a/NMVS/uploads/SO01_Sales order.xlsx
+++ b/NMVS/uploads/SO01_Sales order.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/276815161ec3e88f/Working Space/Netmarks/Aica/Aica Docs/AICA010_Sales order import/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="324" documentId="10_ncr:80_{98A10F0D-B2B3-47C9-A0E3-29206CDC9006}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5A5FBED0-7189-4968-A441-284315E29EB9}"/>
+  <xr:revisionPtr revIDLastSave="327" documentId="10_ncr:80_{98A10F0D-B2B3-47C9-A0E3-29206CDC9006}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9C23EAF8-3381-417E-9595-3F3FD80BDE06}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -130,7 +130,7 @@
     <t>(0: for "Sale" type, 2: for "WH transfer")</t>
   </si>
   <si>
-    <t>SO444</t>
+    <t>SAAAAAAAAAAAAAA</t>
   </si>
 </sst>
 </file>
@@ -720,7 +720,7 @@
   <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.85546875" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1150,7 +1150,7 @@
       <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
       <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" orientation="landscape" r:id="rId1"/>
       <headerFooter alignWithMargins="0"/>
-      <autoFilter ref="A2:F2" xr:uid="{E300A4F1-1E1F-4471-95FF-C4151A525207}"/>
+      <autoFilter ref="A2:F2" xr:uid="{35A79FAB-00E7-41AA-8566-1384D57948AA}"/>
     </customSheetView>
   </customSheetViews>
   <mergeCells count="9">

--- a/NMVS/uploads/SO01_Sales order.xlsx
+++ b/NMVS/uploads/SO01_Sales order.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/276815161ec3e88f/Working Space/Netmarks/Aica/Aica Docs/AICA010_Sales order import/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="327" documentId="10_ncr:80_{98A10F0D-B2B3-47C9-A0E3-29206CDC9006}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9C23EAF8-3381-417E-9595-3F3FD80BDE06}"/>
+  <xr:revisionPtr revIDLastSave="328" documentId="10_ncr:80_{98A10F0D-B2B3-47C9-A0E3-29206CDC9006}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F85A29C1-1261-498B-955E-1D396B6EB76C}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3690" yWindow="3240" windowWidth="21600" windowHeight="11295" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DS APAC" sheetId="1" r:id="rId1"/>
@@ -130,7 +130,7 @@
     <t>(0: for "Sale" type, 2: for "WH transfer")</t>
   </si>
   <si>
-    <t>SAAAAAAAAAAAAAA</t>
+    <t>SO12304567899</t>
   </si>
 </sst>
 </file>
@@ -720,7 +720,7 @@
   <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.85546875" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1150,7 +1150,7 @@
       <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
       <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" orientation="landscape" r:id="rId1"/>
       <headerFooter alignWithMargins="0"/>
-      <autoFilter ref="A2:F2" xr:uid="{35A79FAB-00E7-41AA-8566-1384D57948AA}"/>
+      <autoFilter ref="A2:F2" xr:uid="{BC0C5D80-5500-45EA-B75D-7BA30BE95E91}"/>
     </customSheetView>
   </customSheetViews>
   <mergeCells count="9">
